--- a/data_kingdom.xlsx
+++ b/data_kingdom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AC6138-B7B6-4029-BFEB-094EF761048E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89848BA-51FD-48CC-B82F-E872C6663017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6D928CE0-9C1A-414B-9B85-EFCEA0EF0B0B}"/>
   </bookViews>
@@ -44055,6 +44055,9 @@
       <c r="O313">
         <v>6.1859451568074482</v>
       </c>
+      <c r="Q313">
+        <v>0</v>
+      </c>
       <c r="R313">
         <v>0</v>
       </c>
@@ -47107,6 +47110,9 @@
       <c r="O336">
         <v>6.0947097728495381</v>
       </c>
+      <c r="Q336">
+        <v>0</v>
+      </c>
       <c r="R336">
         <v>0</v>
       </c>
@@ -48697,6 +48703,9 @@
       <c r="O348">
         <v>6.686042543306181</v>
       </c>
+      <c r="Q348">
+        <v>0</v>
+      </c>
       <c r="R348">
         <v>0</v>
       </c>
@@ -49361,6 +49370,9 @@
       <c r="P353" s="3">
         <v>0.13300000000000001</v>
       </c>
+      <c r="Q353">
+        <v>0</v>
+      </c>
       <c r="R353">
         <v>0</v>
       </c>
@@ -53479,6 +53491,9 @@
       <c r="P384" s="3">
         <v>0.627</v>
       </c>
+      <c r="Q384">
+        <v>0</v>
+      </c>
       <c r="R384">
         <v>0</v>
       </c>
@@ -53741,6 +53756,9 @@
       <c r="P386" s="3">
         <v>4.4999999999999998E-2</v>
       </c>
+      <c r="Q386">
+        <v>0</v>
+      </c>
       <c r="R386">
         <v>0</v>
       </c>
@@ -54268,6 +54286,9 @@
       <c r="O390">
         <v>5.6619344870037942</v>
       </c>
+      <c r="Q390">
+        <v>0</v>
+      </c>
       <c r="R390">
         <v>0</v>
       </c>
@@ -57332,6 +57353,9 @@
       <c r="P413" s="3">
         <v>0.217</v>
       </c>
+      <c r="Q413">
+        <v>0</v>
+      </c>
       <c r="R413">
         <v>0</v>
       </c>
@@ -58133,6 +58157,9 @@
       <c r="P419" s="3">
         <v>9.4969999999999999</v>
       </c>
+      <c r="Q419">
+        <v>0</v>
+      </c>
       <c r="R419">
         <v>0</v>
       </c>
@@ -58264,6 +58291,9 @@
       <c r="P420" s="3">
         <v>0.153</v>
       </c>
+      <c r="Q420">
+        <v>0</v>
+      </c>
       <c r="R420">
         <v>0</v>
       </c>
@@ -59193,6 +59223,9 @@
       <c r="P427" s="3">
         <v>4.2999999999999997E-2</v>
       </c>
+      <c r="Q427">
+        <v>0</v>
+      </c>
       <c r="R427">
         <v>0</v>
       </c>
@@ -59455,6 +59488,9 @@
       <c r="O429">
         <v>2.423965219390499</v>
       </c>
+      <c r="Q429">
+        <v>0</v>
+      </c>
       <c r="R429">
         <v>0</v>
       </c>
@@ -59586,6 +59622,9 @@
       <c r="P430" s="3">
         <v>0.45900000000000002</v>
       </c>
+      <c r="Q430">
+        <v>0</v>
+      </c>
       <c r="R430">
         <v>0</v>
       </c>
@@ -60777,6 +60816,9 @@
       <c r="P439" s="3">
         <v>8.5999999999999993E-2</v>
       </c>
+      <c r="Q439">
+        <v>0</v>
+      </c>
       <c r="R439">
         <v>0</v>
       </c>
@@ -60905,6 +60947,9 @@
       <c r="O440">
         <v>2.8594466438407666</v>
       </c>
+      <c r="Q440">
+        <v>0</v>
+      </c>
       <c r="R440">
         <v>0</v>
       </c>
@@ -61033,6 +61078,9 @@
       <c r="O441">
         <v>1.5455199197005967</v>
       </c>
+      <c r="Q441">
+        <v>0</v>
+      </c>
       <c r="R441">
         <v>0</v>
       </c>
@@ -61429,6 +61477,9 @@
       <c r="P444" s="3">
         <v>3.9780000000000002</v>
       </c>
+      <c r="Q444">
+        <v>0</v>
+      </c>
       <c r="R444">
         <v>1</v>
       </c>
@@ -61959,6 +62010,9 @@
       <c r="O448">
         <v>3.1031355750432685</v>
       </c>
+      <c r="Q448">
+        <v>0</v>
+      </c>
       <c r="R448">
         <v>0</v>
       </c>
@@ -62352,6 +62406,9 @@
       <c r="O451">
         <v>0.74183947232294001</v>
       </c>
+      <c r="Q451">
+        <v>0</v>
+      </c>
       <c r="R451">
         <v>0</v>
       </c>
@@ -62617,6 +62674,9 @@
       <c r="P453" s="3">
         <v>0.255</v>
       </c>
+      <c r="Q453">
+        <v>0</v>
+      </c>
       <c r="R453">
         <v>0</v>
       </c>
@@ -63147,6 +63207,9 @@
       <c r="P457" s="3">
         <v>0.157</v>
       </c>
+      <c r="Q457">
+        <v>0</v>
+      </c>
       <c r="R457">
         <v>0</v>
       </c>
@@ -63278,6 +63341,9 @@
       <c r="P458" s="3">
         <v>0.43</v>
       </c>
+      <c r="Q458">
+        <v>0</v>
+      </c>
       <c r="R458">
         <v>0</v>
       </c>
@@ -63540,6 +63606,9 @@
       <c r="O460">
         <v>0.72765179088284015</v>
       </c>
+      <c r="Q460">
+        <v>0</v>
+      </c>
       <c r="R460">
         <v>0</v>
       </c>
@@ -63802,6 +63871,9 @@
       <c r="O462">
         <v>2.2636168739533824</v>
       </c>
+      <c r="Q462">
+        <v>0</v>
+      </c>
       <c r="R462">
         <v>0</v>
       </c>
@@ -64064,6 +64136,9 @@
       <c r="P464" s="3">
         <v>10.603</v>
       </c>
+      <c r="Q464">
+        <v>0</v>
+      </c>
       <c r="R464">
         <v>1</v>
       </c>
@@ -64323,6 +64398,9 @@
       <c r="O466">
         <v>2.1982336550763826</v>
       </c>
+      <c r="Q466">
+        <v>0</v>
+      </c>
       <c r="R466">
         <v>0</v>
       </c>
@@ -64451,6 +64529,9 @@
       <c r="O467">
         <v>0.9826351916809245</v>
       </c>
+      <c r="Q467">
+        <v>0</v>
+      </c>
       <c r="R467">
         <v>0</v>
       </c>
@@ -64710,6 +64791,9 @@
       <c r="O469">
         <v>1.4467245570075875</v>
       </c>
+      <c r="Q469">
+        <v>0</v>
+      </c>
       <c r="R469">
         <v>0</v>
       </c>
@@ -64841,6 +64925,9 @@
       <c r="P470" s="3">
         <v>0.23</v>
       </c>
+      <c r="Q470">
+        <v>0</v>
+      </c>
       <c r="R470">
         <v>0</v>
       </c>
@@ -64969,6 +65056,9 @@
       <c r="O471">
         <v>1.2446437893062485</v>
       </c>
+      <c r="Q471">
+        <v>0</v>
+      </c>
       <c r="R471">
         <v>0</v>
       </c>
@@ -65100,6 +65190,9 @@
       <c r="P472" s="3">
         <v>1.7000000000000001E-2</v>
       </c>
+      <c r="Q472">
+        <v>0</v>
+      </c>
       <c r="R472">
         <v>0</v>
       </c>
@@ -65496,6 +65589,9 @@
       <c r="P475" s="3">
         <v>0.126</v>
       </c>
+      <c r="Q475">
+        <v>0</v>
+      </c>
       <c r="R475">
         <v>0</v>
       </c>
@@ -65627,6 +65723,9 @@
       <c r="P476" s="3">
         <v>7.5999999999999998E-2</v>
       </c>
+      <c r="Q476">
+        <v>0</v>
+      </c>
       <c r="R476">
         <v>0</v>
       </c>
@@ -65886,6 +65985,9 @@
       <c r="O478">
         <v>0.67713322880563098</v>
       </c>
+      <c r="Q478">
+        <v>0</v>
+      </c>
       <c r="R478">
         <v>0</v>
       </c>
@@ -66014,6 +66116,9 @@
       <c r="O479">
         <v>2.1298409217275438</v>
       </c>
+      <c r="Q479">
+        <v>0</v>
+      </c>
       <c r="R479">
         <v>0</v>
       </c>
@@ -66142,6 +66247,9 @@
       <c r="O480">
         <v>0.73540351654284619</v>
       </c>
+      <c r="Q480">
+        <v>0</v>
+      </c>
       <c r="R480">
         <v>0</v>
       </c>
@@ -66273,6 +66381,9 @@
       <c r="P481" s="3">
         <v>7.1669999999999998</v>
       </c>
+      <c r="Q481">
+        <v>0</v>
+      </c>
       <c r="R481">
         <v>0</v>
       </c>
@@ -66404,6 +66515,9 @@
       <c r="P482" s="3">
         <v>1.694</v>
       </c>
+      <c r="Q482">
+        <v>0</v>
+      </c>
       <c r="R482">
         <v>1</v>
       </c>
@@ -66666,6 +66780,9 @@
       <c r="P484" s="3">
         <v>6.2149999999999999</v>
       </c>
+      <c r="Q484">
+        <v>0</v>
+      </c>
       <c r="R484">
         <v>0</v>
       </c>
@@ -66797,6 +66914,9 @@
       <c r="P485" s="3">
         <v>0.158</v>
       </c>
+      <c r="Q485">
+        <v>0</v>
+      </c>
       <c r="R485">
         <v>0</v>
       </c>
@@ -66925,6 +67045,9 @@
       <c r="O486">
         <v>0.7047130592089611</v>
       </c>
+      <c r="Q486">
+        <v>0</v>
+      </c>
       <c r="R486">
         <v>0</v>
       </c>
@@ -67187,6 +67310,9 @@
       <c r="O488">
         <v>0.20935230008361713</v>
       </c>
+      <c r="Q488">
+        <v>0</v>
+      </c>
       <c r="R488">
         <v>0</v>
       </c>
@@ -67318,6 +67444,9 @@
       <c r="P489" s="3">
         <v>2.9000000000000001E-2</v>
       </c>
+      <c r="Q489">
+        <v>0</v>
+      </c>
       <c r="R489">
         <v>0</v>
       </c>
@@ -67446,6 +67575,9 @@
       <c r="O490">
         <v>1.9407872406769082</v>
       </c>
+      <c r="Q490">
+        <v>0</v>
+      </c>
       <c r="R490">
         <v>0</v>
       </c>
@@ -67574,6 +67706,9 @@
       <c r="O491">
         <v>0.49639723553334297</v>
       </c>
+      <c r="Q491">
+        <v>0</v>
+      </c>
       <c r="R491">
         <v>0</v>
       </c>
@@ -67836,6 +67971,9 @@
       <c r="P493" s="3">
         <v>0.29699999999999999</v>
       </c>
+      <c r="Q493">
+        <v>0</v>
+      </c>
       <c r="R493">
         <v>0</v>
       </c>
@@ -67967,6 +68105,9 @@
       <c r="P494" s="3">
         <v>3.5569999999999999</v>
       </c>
+      <c r="Q494">
+        <v>0</v>
+      </c>
       <c r="R494">
         <v>0</v>
       </c>
@@ -68098,6 +68239,9 @@
       <c r="P495" s="3">
         <v>0.67600000000000005</v>
       </c>
+      <c r="Q495">
+        <v>0</v>
+      </c>
       <c r="R495">
         <v>0</v>
       </c>
@@ -68226,6 +68370,9 @@
       <c r="O496">
         <v>0.22575366666574861</v>
       </c>
+      <c r="Q496">
+        <v>0</v>
+      </c>
       <c r="R496">
         <v>0</v>
       </c>
@@ -68354,6 +68501,9 @@
       <c r="O497">
         <v>0.3261293576566025</v>
       </c>
+      <c r="Q497">
+        <v>0</v>
+      </c>
       <c r="R497">
         <v>0</v>
       </c>
@@ -68485,6 +68635,9 @@
       <c r="P498" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
+      <c r="Q498">
+        <v>0</v>
+      </c>
       <c r="R498">
         <v>0</v>
       </c>
@@ -68616,6 +68769,9 @@
       <c r="P499" s="3">
         <v>4.2060000000000004</v>
       </c>
+      <c r="Q499">
+        <v>0</v>
+      </c>
       <c r="R499">
         <v>0</v>
       </c>
@@ -68747,6 +68903,9 @@
       <c r="P500" s="3">
         <v>5.2389999999999999</v>
       </c>
+      <c r="Q500">
+        <v>0</v>
+      </c>
       <c r="R500">
         <v>0</v>
       </c>
@@ -68875,6 +69034,9 @@
       <c r="O501">
         <v>0</v>
       </c>
+      <c r="Q501">
+        <v>0</v>
+      </c>
       <c r="R501">
         <v>0</v>
       </c>
@@ -69003,6 +69165,9 @@
       <c r="O502">
         <v>0</v>
       </c>
+      <c r="Q502">
+        <v>0</v>
+      </c>
       <c r="R502">
         <v>0</v>
       </c>
@@ -69131,6 +69296,9 @@
       <c r="O503">
         <v>0</v>
       </c>
+      <c r="Q503">
+        <v>0</v>
+      </c>
       <c r="R503">
         <v>0</v>
       </c>
@@ -69262,6 +69430,9 @@
       <c r="P504" s="3">
         <v>2.8610000000000002</v>
       </c>
+      <c r="Q504">
+        <v>0</v>
+      </c>
       <c r="R504">
         <v>0</v>
       </c>
@@ -69393,6 +69564,9 @@
       <c r="P505" s="3">
         <v>1.79</v>
       </c>
+      <c r="Q505">
+        <v>0</v>
+      </c>
       <c r="R505">
         <v>0</v>
       </c>
@@ -69524,6 +69698,9 @@
       <c r="P506" s="3">
         <v>2.3820000000000001</v>
       </c>
+      <c r="Q506">
+        <v>0</v>
+      </c>
       <c r="R506">
         <v>0</v>
       </c>
@@ -69655,6 +69832,9 @@
       <c r="P507" s="3">
         <v>1.8979999999999999</v>
       </c>
+      <c r="Q507">
+        <v>0</v>
+      </c>
       <c r="R507">
         <v>0</v>
       </c>
@@ -69786,6 +69966,9 @@
       <c r="P508" s="3">
         <v>0.34599999999999997</v>
       </c>
+      <c r="Q508">
+        <v>0</v>
+      </c>
       <c r="R508">
         <v>0</v>
       </c>
@@ -69914,6 +70097,9 @@
       <c r="O509">
         <v>0</v>
       </c>
+      <c r="Q509">
+        <v>0</v>
+      </c>
       <c r="R509">
         <v>0</v>
       </c>
@@ -70045,6 +70231,9 @@
       <c r="P510" s="3">
         <v>4.2000000000000003E-2</v>
       </c>
+      <c r="Q510">
+        <v>0</v>
+      </c>
       <c r="R510">
         <v>0</v>
       </c>
@@ -70176,6 +70365,9 @@
       <c r="P511" s="3">
         <v>5.1999999999999998E-2</v>
       </c>
+      <c r="Q511">
+        <v>0</v>
+      </c>
       <c r="R511">
         <v>0</v>
       </c>
@@ -70304,6 +70496,9 @@
       <c r="O512">
         <v>0</v>
       </c>
+      <c r="Q512">
+        <v>0</v>
+      </c>
       <c r="R512">
         <v>0</v>
       </c>
@@ -70432,6 +70627,9 @@
       <c r="O513">
         <v>0</v>
       </c>
+      <c r="Q513">
+        <v>0</v>
+      </c>
       <c r="R513">
         <v>0</v>
       </c>
@@ -70563,6 +70761,9 @@
       <c r="P514" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
+      <c r="Q514">
+        <v>0</v>
+      </c>
       <c r="R514">
         <v>0</v>
       </c>
@@ -70694,6 +70895,9 @@
       <c r="P515" s="3">
         <v>0.82199999999999995</v>
       </c>
+      <c r="Q515">
+        <v>0</v>
+      </c>
       <c r="R515">
         <v>0</v>
       </c>
@@ -70825,6 +71029,9 @@
       <c r="P516" s="3">
         <v>0.67600000000000005</v>
       </c>
+      <c r="Q516">
+        <v>0</v>
+      </c>
       <c r="R516">
         <v>0</v>
       </c>
@@ -70953,6 +71160,9 @@
       <c r="O517">
         <v>0</v>
       </c>
+      <c r="Q517">
+        <v>0</v>
+      </c>
       <c r="R517">
         <v>0</v>
       </c>
@@ -71081,6 +71291,9 @@
       <c r="O518">
         <v>0</v>
       </c>
+      <c r="Q518">
+        <v>0</v>
+      </c>
       <c r="R518">
         <v>0</v>
       </c>
@@ -71209,6 +71422,9 @@
       <c r="O519">
         <v>0</v>
       </c>
+      <c r="Q519">
+        <v>0</v>
+      </c>
       <c r="R519">
         <v>0</v>
       </c>
@@ -71337,6 +71553,9 @@
       <c r="O520">
         <v>0</v>
       </c>
+      <c r="Q520">
+        <v>0</v>
+      </c>
       <c r="R520">
         <v>0</v>
       </c>
@@ -71468,6 +71687,9 @@
       <c r="P521" s="3">
         <v>0.46600000000000003</v>
       </c>
+      <c r="Q521">
+        <v>0</v>
+      </c>
       <c r="R521">
         <v>0</v>
       </c>
@@ -71596,6 +71818,9 @@
       <c r="O522">
         <v>0</v>
       </c>
+      <c r="Q522">
+        <v>0</v>
+      </c>
       <c r="R522">
         <v>0</v>
       </c>
@@ -71724,6 +71949,9 @@
       <c r="O523">
         <v>0</v>
       </c>
+      <c r="Q523">
+        <v>0</v>
+      </c>
       <c r="R523">
         <v>0</v>
       </c>
@@ -71852,6 +72080,9 @@
       <c r="O524">
         <v>0</v>
       </c>
+      <c r="Q524">
+        <v>0</v>
+      </c>
       <c r="R524">
         <v>0</v>
       </c>
@@ -71980,6 +72211,9 @@
       <c r="O525">
         <v>0</v>
       </c>
+      <c r="Q525">
+        <v>0</v>
+      </c>
       <c r="R525">
         <v>0</v>
       </c>
@@ -72108,6 +72342,9 @@
       <c r="O526">
         <v>0</v>
       </c>
+      <c r="Q526">
+        <v>0</v>
+      </c>
       <c r="R526">
         <v>0</v>
       </c>
@@ -72236,6 +72473,9 @@
       <c r="O527">
         <v>0</v>
       </c>
+      <c r="Q527">
+        <v>0</v>
+      </c>
       <c r="R527">
         <v>0</v>
       </c>
@@ -72364,6 +72604,9 @@
       <c r="O528">
         <v>0</v>
       </c>
+      <c r="Q528">
+        <v>0</v>
+      </c>
       <c r="R528">
         <v>0</v>
       </c>
@@ -72495,6 +72738,9 @@
       <c r="P529" s="3">
         <v>5.2949999999999999</v>
       </c>
+      <c r="Q529">
+        <v>0</v>
+      </c>
       <c r="R529">
         <v>0</v>
       </c>
@@ -72626,6 +72872,9 @@
       <c r="P530" s="3">
         <v>18.254999999999999</v>
       </c>
+      <c r="Q530">
+        <v>0</v>
+      </c>
       <c r="R530">
         <v>0</v>
       </c>
@@ -72754,6 +73003,9 @@
       <c r="O531">
         <v>0</v>
       </c>
+      <c r="Q531">
+        <v>0</v>
+      </c>
       <c r="R531">
         <v>0</v>
       </c>
@@ -72882,6 +73134,9 @@
       <c r="O532">
         <v>0</v>
       </c>
+      <c r="Q532">
+        <v>0</v>
+      </c>
       <c r="R532">
         <v>0</v>
       </c>
@@ -73010,6 +73265,9 @@
       <c r="O533">
         <v>0</v>
       </c>
+      <c r="Q533">
+        <v>0</v>
+      </c>
       <c r="R533">
         <v>0</v>
       </c>
@@ -73138,6 +73396,9 @@
       <c r="O534">
         <v>0</v>
       </c>
+      <c r="Q534">
+        <v>0</v>
+      </c>
       <c r="R534">
         <v>0</v>
       </c>
@@ -73269,6 +73530,9 @@
       <c r="P535" s="3">
         <v>7.8E-2</v>
       </c>
+      <c r="Q535">
+        <v>0</v>
+      </c>
       <c r="R535">
         <v>0</v>
       </c>
@@ -73397,6 +73661,9 @@
       <c r="O536">
         <v>0</v>
       </c>
+      <c r="Q536">
+        <v>0</v>
+      </c>
       <c r="R536">
         <v>0</v>
       </c>
@@ -73525,6 +73792,9 @@
       <c r="O537">
         <v>0</v>
       </c>
+      <c r="Q537">
+        <v>0</v>
+      </c>
       <c r="R537">
         <v>0</v>
       </c>
@@ -73656,6 +73926,9 @@
       <c r="P538" s="3">
         <v>0.57199999999999995</v>
       </c>
+      <c r="Q538">
+        <v>0</v>
+      </c>
       <c r="R538">
         <v>0</v>
       </c>
@@ -73784,6 +74057,9 @@
       <c r="O539">
         <v>0</v>
       </c>
+      <c r="Q539">
+        <v>0</v>
+      </c>
       <c r="R539">
         <v>0</v>
       </c>
@@ -73912,6 +74188,9 @@
       <c r="O540">
         <v>0</v>
       </c>
+      <c r="Q540">
+        <v>0</v>
+      </c>
       <c r="R540">
         <v>0</v>
       </c>
@@ -74040,6 +74319,9 @@
       <c r="O541">
         <v>0</v>
       </c>
+      <c r="Q541">
+        <v>0</v>
+      </c>
       <c r="R541">
         <v>0</v>
       </c>
@@ -74171,6 +74453,9 @@
       <c r="P542" s="3">
         <v>0.10199999999999999</v>
       </c>
+      <c r="Q542">
+        <v>0</v>
+      </c>
       <c r="R542">
         <v>0</v>
       </c>
@@ -74302,6 +74587,9 @@
       <c r="P543" s="3">
         <v>6.92</v>
       </c>
+      <c r="Q543">
+        <v>0</v>
+      </c>
       <c r="R543">
         <v>0</v>
       </c>
@@ -74433,6 +74721,9 @@
       <c r="P544" s="3">
         <v>2.7109999999999999</v>
       </c>
+      <c r="Q544">
+        <v>0</v>
+      </c>
       <c r="R544">
         <v>0</v>
       </c>
@@ -74564,6 +74855,9 @@
       <c r="P545" s="3">
         <v>1.9450000000000001</v>
       </c>
+      <c r="Q545">
+        <v>0</v>
+      </c>
       <c r="R545">
         <v>0</v>
       </c>
@@ -74695,6 +74989,9 @@
       <c r="P546" s="3">
         <v>5.0620000000000003</v>
       </c>
+      <c r="Q546">
+        <v>0</v>
+      </c>
       <c r="R546">
         <v>0</v>
       </c>
@@ -74823,6 +75120,9 @@
       <c r="O547">
         <v>0</v>
       </c>
+      <c r="Q547">
+        <v>0</v>
+      </c>
       <c r="R547">
         <v>0</v>
       </c>
@@ -74954,6 +75254,9 @@
       <c r="P548" s="3">
         <v>3.3220000000000001</v>
       </c>
+      <c r="Q548">
+        <v>0</v>
+      </c>
       <c r="R548">
         <v>0</v>
       </c>
@@ -75082,6 +75385,9 @@
       <c r="O549">
         <v>0</v>
       </c>
+      <c r="Q549">
+        <v>0</v>
+      </c>
       <c r="R549">
         <v>0</v>
       </c>
@@ -75213,6 +75519,9 @@
       <c r="P550" s="3">
         <v>0.24199999999999999</v>
       </c>
+      <c r="Q550">
+        <v>0</v>
+      </c>
       <c r="R550">
         <v>0</v>
       </c>
@@ -75344,6 +75653,9 @@
       <c r="P551" s="3">
         <v>6.6420000000000003</v>
       </c>
+      <c r="Q551">
+        <v>0</v>
+      </c>
       <c r="R551">
         <v>0</v>
       </c>
@@ -75475,6 +75787,9 @@
       <c r="P552" s="3">
         <v>0.47899999999999998</v>
       </c>
+      <c r="Q552">
+        <v>0</v>
+      </c>
       <c r="R552">
         <v>0</v>
       </c>
@@ -75603,6 +75918,9 @@
       <c r="O553">
         <v>0</v>
       </c>
+      <c r="Q553">
+        <v>0</v>
+      </c>
       <c r="R553">
         <v>0</v>
       </c>
@@ -75731,6 +76049,9 @@
       <c r="O554">
         <v>0</v>
       </c>
+      <c r="Q554">
+        <v>0</v>
+      </c>
       <c r="R554">
         <v>0</v>
       </c>
@@ -75862,6 +76183,9 @@
       <c r="P555" s="3">
         <v>5.0999999999999997E-2</v>
       </c>
+      <c r="Q555">
+        <v>0</v>
+      </c>
       <c r="R555">
         <v>0</v>
       </c>
@@ -75993,6 +76317,9 @@
       <c r="P556" s="3">
         <v>3.9119999999999999</v>
       </c>
+      <c r="Q556">
+        <v>0</v>
+      </c>
       <c r="R556">
         <v>0</v>
       </c>
@@ -76121,6 +76448,9 @@
       <c r="O557">
         <v>0</v>
       </c>
+      <c r="Q557">
+        <v>0</v>
+      </c>
       <c r="R557">
         <v>0</v>
       </c>
@@ -76249,6 +76579,9 @@
       <c r="O558">
         <v>0</v>
       </c>
+      <c r="Q558">
+        <v>0</v>
+      </c>
       <c r="R558">
         <v>0</v>
       </c>
@@ -76380,6 +76713,9 @@
       <c r="P559" s="3">
         <v>3.1480000000000001</v>
       </c>
+      <c r="Q559">
+        <v>0</v>
+      </c>
       <c r="R559">
         <v>0</v>
       </c>
@@ -76508,6 +76844,9 @@
       <c r="O560">
         <v>0</v>
       </c>
+      <c r="Q560">
+        <v>0</v>
+      </c>
       <c r="R560">
         <v>0</v>
       </c>
@@ -76639,6 +76978,9 @@
       <c r="P561" s="3">
         <v>1.6339999999999999</v>
       </c>
+      <c r="Q561">
+        <v>0</v>
+      </c>
       <c r="R561">
         <v>0</v>
       </c>
@@ -76767,6 +77109,9 @@
       <c r="O562">
         <v>0</v>
       </c>
+      <c r="Q562">
+        <v>0</v>
+      </c>
       <c r="R562">
         <v>0</v>
       </c>
@@ -76895,6 +77240,9 @@
       <c r="O563">
         <v>0</v>
       </c>
+      <c r="Q563">
+        <v>0</v>
+      </c>
       <c r="R563">
         <v>0</v>
       </c>
@@ -77026,6 +77374,9 @@
       <c r="P564" s="3">
         <v>0.04</v>
       </c>
+      <c r="Q564">
+        <v>0</v>
+      </c>
       <c r="R564">
         <v>0</v>
       </c>
@@ -77157,6 +77508,9 @@
       <c r="P565" s="3">
         <v>7.4509999999999996</v>
       </c>
+      <c r="Q565">
+        <v>0</v>
+      </c>
       <c r="R565">
         <v>1</v>
       </c>
@@ -77288,6 +77642,9 @@
       <c r="P566" s="3">
         <v>11.948</v>
       </c>
+      <c r="Q566">
+        <v>0</v>
+      </c>
       <c r="R566">
         <v>1</v>
       </c>
@@ -77416,6 +77773,9 @@
       <c r="O567">
         <v>0</v>
       </c>
+      <c r="Q567">
+        <v>0</v>
+      </c>
       <c r="R567">
         <v>0</v>
       </c>
@@ -77547,6 +77907,9 @@
       <c r="P568" s="3">
         <v>0.17599999999999999</v>
       </c>
+      <c r="Q568">
+        <v>0</v>
+      </c>
       <c r="R568">
         <v>0</v>
       </c>
@@ -77675,6 +78038,9 @@
       <c r="O569">
         <v>0</v>
       </c>
+      <c r="Q569">
+        <v>0</v>
+      </c>
       <c r="R569">
         <v>0</v>
       </c>
@@ -77803,6 +78169,9 @@
       <c r="O570">
         <v>0</v>
       </c>
+      <c r="Q570">
+        <v>0</v>
+      </c>
       <c r="R570">
         <v>0</v>
       </c>
@@ -77931,6 +78300,9 @@
       <c r="O571">
         <v>0</v>
       </c>
+      <c r="Q571">
+        <v>0</v>
+      </c>
       <c r="R571">
         <v>0</v>
       </c>
@@ -78059,6 +78431,9 @@
       <c r="O572">
         <v>0</v>
       </c>
+      <c r="Q572">
+        <v>0</v>
+      </c>
       <c r="R572">
         <v>0</v>
       </c>
@@ -78187,6 +78562,9 @@
       <c r="O573">
         <v>0</v>
       </c>
+      <c r="Q573">
+        <v>0</v>
+      </c>
       <c r="R573">
         <v>0</v>
       </c>
@@ -78318,6 +78696,9 @@
       <c r="P574" s="3">
         <v>2.2160000000000002</v>
       </c>
+      <c r="Q574">
+        <v>0</v>
+      </c>
       <c r="R574">
         <v>0</v>
       </c>
@@ -78446,6 +78827,9 @@
       <c r="O575">
         <v>0</v>
       </c>
+      <c r="Q575">
+        <v>0</v>
+      </c>
       <c r="R575">
         <v>0</v>
       </c>
@@ -78577,6 +78961,9 @@
       <c r="P576" s="3">
         <v>0.153</v>
       </c>
+      <c r="Q576">
+        <v>0</v>
+      </c>
       <c r="R576">
         <v>0</v>
       </c>
@@ -78708,6 +79095,9 @@
       <c r="P577" s="3">
         <v>2.266</v>
       </c>
+      <c r="Q577">
+        <v>0</v>
+      </c>
       <c r="R577">
         <v>0</v>
       </c>
@@ -78836,6 +79226,9 @@
       <c r="O578">
         <v>0</v>
       </c>
+      <c r="Q578">
+        <v>0</v>
+      </c>
       <c r="R578">
         <v>0</v>
       </c>
@@ -78967,6 +79360,9 @@
       <c r="P579" s="3">
         <v>0.69899999999999995</v>
       </c>
+      <c r="Q579">
+        <v>0</v>
+      </c>
       <c r="R579">
         <v>0</v>
       </c>
@@ -79098,6 +79494,9 @@
       <c r="P580" s="3">
         <v>2.823</v>
       </c>
+      <c r="Q580">
+        <v>0</v>
+      </c>
       <c r="R580">
         <v>0</v>
       </c>
@@ -79229,6 +79628,9 @@
       <c r="P581" s="3">
         <v>10.882999999999999</v>
       </c>
+      <c r="Q581">
+        <v>0</v>
+      </c>
       <c r="R581">
         <v>0</v>
       </c>
@@ -79360,6 +79762,9 @@
       <c r="P582" s="3">
         <v>2.8159999999999998</v>
       </c>
+      <c r="Q582">
+        <v>0</v>
+      </c>
       <c r="R582">
         <v>0</v>
       </c>
@@ -79491,6 +79896,9 @@
       <c r="P583" s="3">
         <v>1.0009999999999999</v>
       </c>
+      <c r="Q583">
+        <v>0</v>
+      </c>
       <c r="R583">
         <v>0</v>
       </c>
@@ -79619,6 +80027,9 @@
       <c r="O584">
         <v>0</v>
       </c>
+      <c r="Q584">
+        <v>0</v>
+      </c>
       <c r="R584">
         <v>0</v>
       </c>
@@ -79747,6 +80158,9 @@
       <c r="O585">
         <v>0</v>
       </c>
+      <c r="Q585">
+        <v>0</v>
+      </c>
       <c r="R585">
         <v>0</v>
       </c>
@@ -79875,6 +80289,9 @@
       <c r="O586">
         <v>0</v>
       </c>
+      <c r="Q586">
+        <v>0</v>
+      </c>
       <c r="R586">
         <v>0</v>
       </c>
@@ -80006,6 +80423,9 @@
       <c r="P587" s="3">
         <v>11.961</v>
       </c>
+      <c r="Q587">
+        <v>0</v>
+      </c>
       <c r="R587">
         <v>0</v>
       </c>
@@ -80134,6 +80554,9 @@
       <c r="O588">
         <v>0</v>
       </c>
+      <c r="Q588">
+        <v>0</v>
+      </c>
       <c r="R588">
         <v>0</v>
       </c>
@@ -80265,6 +80688,9 @@
       <c r="P589" s="3">
         <v>0.39200000000000002</v>
       </c>
+      <c r="Q589">
+        <v>0</v>
+      </c>
       <c r="R589">
         <v>0</v>
       </c>
@@ -80396,6 +80822,9 @@
       <c r="P590" s="3">
         <v>8.1750000000000007</v>
       </c>
+      <c r="Q590">
+        <v>0</v>
+      </c>
       <c r="R590">
         <v>0</v>
       </c>
@@ -80527,6 +80956,9 @@
       <c r="P591" s="3">
         <v>6.8040000000000003</v>
       </c>
+      <c r="Q591">
+        <v>0</v>
+      </c>
       <c r="R591">
         <v>0</v>
       </c>
@@ -80658,6 +81090,9 @@
       <c r="P592" s="3">
         <v>3.9E-2</v>
       </c>
+      <c r="Q592">
+        <v>0</v>
+      </c>
       <c r="R592">
         <v>0</v>
       </c>
@@ -80789,6 +81224,9 @@
       <c r="P593" s="3">
         <v>1.5069999999999999</v>
       </c>
+      <c r="Q593">
+        <v>0</v>
+      </c>
       <c r="R593">
         <v>0</v>
       </c>
@@ -80917,6 +81355,9 @@
       <c r="O594">
         <v>0</v>
       </c>
+      <c r="Q594">
+        <v>0</v>
+      </c>
       <c r="R594">
         <v>0</v>
       </c>
@@ -81045,6 +81486,9 @@
       <c r="O595">
         <v>0</v>
       </c>
+      <c r="Q595">
+        <v>0</v>
+      </c>
       <c r="R595">
         <v>0</v>
       </c>
@@ -81176,6 +81620,9 @@
       <c r="P596" s="3">
         <v>0.34300000000000003</v>
       </c>
+      <c r="Q596">
+        <v>0</v>
+      </c>
       <c r="R596">
         <v>0</v>
       </c>
@@ -81304,6 +81751,9 @@
       <c r="O597">
         <v>0</v>
       </c>
+      <c r="Q597">
+        <v>0</v>
+      </c>
       <c r="R597">
         <v>0</v>
       </c>
@@ -81566,6 +82016,9 @@
       <c r="P599" s="3">
         <v>1.6E-2</v>
       </c>
+      <c r="Q599">
+        <v>0</v>
+      </c>
       <c r="R599">
         <v>0</v>
       </c>
@@ -81697,6 +82150,9 @@
       <c r="P600" s="3">
         <v>15.042</v>
       </c>
+      <c r="Q600">
+        <v>0</v>
+      </c>
       <c r="R600">
         <v>0</v>
       </c>
@@ -81825,6 +82281,9 @@
       <c r="O601">
         <v>0.28905094603696202</v>
       </c>
+      <c r="Q601">
+        <v>0</v>
+      </c>
       <c r="R601">
         <v>0</v>
       </c>
@@ -81956,6 +82415,9 @@
       <c r="P602" s="3">
         <v>9.8770000000000007</v>
       </c>
+      <c r="Q602">
+        <v>0</v>
+      </c>
       <c r="R602">
         <v>0</v>
       </c>
@@ -82352,6 +82814,9 @@
       <c r="O605">
         <v>0.33501522111677712</v>
       </c>
+      <c r="Q605">
+        <v>0</v>
+      </c>
       <c r="R605">
         <v>0</v>
       </c>
@@ -82483,6 +82948,9 @@
       <c r="P606" s="3">
         <v>0.316</v>
       </c>
+      <c r="Q606">
+        <v>0</v>
+      </c>
       <c r="R606">
         <v>0</v>
       </c>
@@ -82614,6 +83082,9 @@
       <c r="P607" s="3">
         <v>0.01</v>
       </c>
+      <c r="Q607">
+        <v>0</v>
+      </c>
       <c r="R607">
         <v>0</v>
       </c>
@@ -82742,6 +83213,9 @@
       <c r="O608">
         <v>0.10657361519618508</v>
       </c>
+      <c r="Q608">
+        <v>0</v>
+      </c>
       <c r="R608">
         <v>0</v>
       </c>
@@ -82873,6 +83347,9 @@
       <c r="P609" s="3">
         <v>1.526</v>
       </c>
+      <c r="Q609">
+        <v>0</v>
+      </c>
       <c r="R609">
         <v>0</v>
       </c>
@@ -83004,6 +83481,9 @@
       <c r="P610" s="3">
         <v>12.936999999999999</v>
       </c>
+      <c r="Q610">
+        <v>0</v>
+      </c>
       <c r="R610">
         <v>0</v>
       </c>
@@ -83266,6 +83746,9 @@
       <c r="O612">
         <v>0.32505142846422758</v>
       </c>
+      <c r="Q612">
+        <v>0</v>
+      </c>
       <c r="R612">
         <v>0</v>
       </c>
@@ -83397,6 +83880,9 @@
       <c r="P613" s="3">
         <v>0.159</v>
       </c>
+      <c r="Q613">
+        <v>0</v>
+      </c>
       <c r="R613">
         <v>0</v>
       </c>
@@ -83659,6 +84145,9 @@
       <c r="O615">
         <v>1.8741329711715771</v>
       </c>
+      <c r="Q615">
+        <v>0</v>
+      </c>
       <c r="R615">
         <v>0</v>
       </c>
@@ -83790,6 +84279,9 @@
       <c r="P616" s="3">
         <v>8.2010000000000005</v>
       </c>
+      <c r="Q616">
+        <v>0</v>
+      </c>
       <c r="R616">
         <v>0</v>
       </c>
@@ -83921,6 +84413,9 @@
       <c r="P617" s="3">
         <v>0.44500000000000001</v>
       </c>
+      <c r="Q617">
+        <v>0</v>
+      </c>
       <c r="R617">
         <v>0</v>
       </c>
@@ -84004,6 +84499,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AR617" xr:uid="{5517B259-61F9-4634-8D5A-7C88EBB435E2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
